--- a/classificationFile_sales/sumSales_year/食用菌_sales.xlsx
+++ b/classificationFile_sales/sumSales_year/食用菌_sales.xlsx
@@ -16,232 +16,232 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="76">
   <si>
+    <t>单品名称</t>
+  </si>
+  <si>
     <t>分类名称</t>
   </si>
   <si>
-    <t>单品名称</t>
-  </si>
-  <si>
     <t>年份</t>
   </si>
   <si>
     <t>销量(千克)</t>
   </si>
   <si>
+    <t>双孢菇</t>
+  </si>
+  <si>
+    <t>双孢菇(份)</t>
+  </si>
+  <si>
+    <t>双孢菇(盒)</t>
+  </si>
+  <si>
+    <t>和丰阳光海鲜菇(包)</t>
+  </si>
+  <si>
+    <t>姬菇(1)</t>
+  </si>
+  <si>
+    <t>姬菇(2)</t>
+  </si>
+  <si>
+    <t>姬菇(份)</t>
+  </si>
+  <si>
+    <t>姬菇(包)</t>
+  </si>
+  <si>
+    <t>平菇</t>
+  </si>
+  <si>
+    <t>杏鲍菇(1)</t>
+  </si>
+  <si>
+    <t>杏鲍菇(2)</t>
+  </si>
+  <si>
+    <t>杏鲍菇(250克)</t>
+  </si>
+  <si>
+    <t>杏鲍菇(份)</t>
+  </si>
+  <si>
+    <t>杏鲍菇(袋)</t>
+  </si>
+  <si>
+    <t>活体银耳</t>
+  </si>
+  <si>
+    <t>海鲜菇(1)</t>
+  </si>
+  <si>
+    <t>海鲜菇(2)</t>
+  </si>
+  <si>
+    <t>海鲜菇(份)</t>
+  </si>
+  <si>
+    <t>海鲜菇(包)</t>
+  </si>
+  <si>
+    <t>海鲜菇(袋)(1)</t>
+  </si>
+  <si>
+    <t>海鲜菇(袋)(2)</t>
+  </si>
+  <si>
+    <t>海鲜菇(袋)(3)</t>
+  </si>
+  <si>
+    <t>海鲜菇(袋)(4)</t>
+  </si>
+  <si>
+    <t>牛排菇</t>
+  </si>
+  <si>
+    <t>牛排菇(盒)</t>
+  </si>
+  <si>
+    <t>猪肚菇(盒)</t>
+  </si>
+  <si>
+    <t>猴头菇</t>
+  </si>
+  <si>
+    <t>白玉菇(1)</t>
+  </si>
+  <si>
+    <t>白玉菇(2)</t>
+  </si>
+  <si>
+    <t>白玉菇(盒)</t>
+  </si>
+  <si>
+    <t>白玉菇(袋)</t>
+  </si>
+  <si>
+    <t>秀珍菇</t>
+  </si>
+  <si>
+    <t>绣球菌</t>
+  </si>
+  <si>
+    <t>绣球菌(袋)</t>
+  </si>
+  <si>
+    <t>花菇(一人份)</t>
+  </si>
+  <si>
+    <t>茶树菇(袋)</t>
+  </si>
+  <si>
+    <t>菌菇火锅套餐(份)</t>
+  </si>
+  <si>
+    <t>菌蔬四宝(份)</t>
+  </si>
+  <si>
+    <t>虫草花</t>
+  </si>
+  <si>
+    <t>虫草花(份)</t>
+  </si>
+  <si>
+    <t>虫草花(盒)(2)</t>
+  </si>
+  <si>
+    <t>虫草花(袋)</t>
+  </si>
+  <si>
+    <t>蟹味菇(1)</t>
+  </si>
+  <si>
+    <t>蟹味菇(2)</t>
+  </si>
+  <si>
+    <t>蟹味菇(盒)</t>
+  </si>
+  <si>
+    <t>蟹味菇(袋)</t>
+  </si>
+  <si>
+    <t>蟹味菇与白玉菇双拼(盒)</t>
+  </si>
+  <si>
+    <t>西峡花菇(1)</t>
+  </si>
+  <si>
+    <t>西峡花菇(2)</t>
+  </si>
+  <si>
+    <t>西峡香菇(1)</t>
+  </si>
+  <si>
+    <t>西峡香菇(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西峡香菇(份) </t>
+  </si>
+  <si>
+    <t>赤松茸</t>
+  </si>
+  <si>
+    <t>赤松茸(盒)</t>
+  </si>
+  <si>
+    <t>金针菇(1)</t>
+  </si>
+  <si>
+    <t>金针菇(2)</t>
+  </si>
+  <si>
+    <t>金针菇(份)</t>
+  </si>
+  <si>
+    <t>金针菇(盒)</t>
+  </si>
+  <si>
+    <t>金针菇(袋)(1)</t>
+  </si>
+  <si>
+    <t>金针菇(袋)(2)</t>
+  </si>
+  <si>
+    <t>金针菇(袋)(3)</t>
+  </si>
+  <si>
+    <t>银耳(朵)</t>
+  </si>
+  <si>
+    <t>鲜木耳(1)</t>
+  </si>
+  <si>
+    <t>鲜木耳(2)</t>
+  </si>
+  <si>
+    <t>鲜木耳(份)</t>
+  </si>
+  <si>
+    <t>鸡枞菌</t>
+  </si>
+  <si>
+    <t>鹿茸菇(盒)</t>
+  </si>
+  <si>
+    <t>黑牛肝菌</t>
+  </si>
+  <si>
+    <t>黑牛肝菌(盒)</t>
+  </si>
+  <si>
+    <t>黑皮鸡枞菌</t>
+  </si>
+  <si>
+    <t>黑皮鸡枞菌(盒)</t>
+  </si>
+  <si>
     <t>食用菌</t>
-  </si>
-  <si>
-    <t>双孢菇</t>
-  </si>
-  <si>
-    <t>双孢菇(份)</t>
-  </si>
-  <si>
-    <t>双孢菇(盒)</t>
-  </si>
-  <si>
-    <t>和丰阳光海鲜菇(包)</t>
-  </si>
-  <si>
-    <t>姬菇(1)</t>
-  </si>
-  <si>
-    <t>姬菇(2)</t>
-  </si>
-  <si>
-    <t>姬菇(份)</t>
-  </si>
-  <si>
-    <t>姬菇(包)</t>
-  </si>
-  <si>
-    <t>平菇</t>
-  </si>
-  <si>
-    <t>杏鲍菇(1)</t>
-  </si>
-  <si>
-    <t>杏鲍菇(2)</t>
-  </si>
-  <si>
-    <t>杏鲍菇(250克)</t>
-  </si>
-  <si>
-    <t>杏鲍菇(份)</t>
-  </si>
-  <si>
-    <t>杏鲍菇(袋)</t>
-  </si>
-  <si>
-    <t>活体银耳</t>
-  </si>
-  <si>
-    <t>海鲜菇(1)</t>
-  </si>
-  <si>
-    <t>海鲜菇(2)</t>
-  </si>
-  <si>
-    <t>海鲜菇(份)</t>
-  </si>
-  <si>
-    <t>海鲜菇(包)</t>
-  </si>
-  <si>
-    <t>海鲜菇(袋)(1)</t>
-  </si>
-  <si>
-    <t>海鲜菇(袋)(2)</t>
-  </si>
-  <si>
-    <t>海鲜菇(袋)(3)</t>
-  </si>
-  <si>
-    <t>海鲜菇(袋)(4)</t>
-  </si>
-  <si>
-    <t>牛排菇</t>
-  </si>
-  <si>
-    <t>牛排菇(盒)</t>
-  </si>
-  <si>
-    <t>猪肚菇(盒)</t>
-  </si>
-  <si>
-    <t>猴头菇</t>
-  </si>
-  <si>
-    <t>白玉菇(1)</t>
-  </si>
-  <si>
-    <t>白玉菇(2)</t>
-  </si>
-  <si>
-    <t>白玉菇(盒)</t>
-  </si>
-  <si>
-    <t>白玉菇(袋)</t>
-  </si>
-  <si>
-    <t>秀珍菇</t>
-  </si>
-  <si>
-    <t>绣球菌</t>
-  </si>
-  <si>
-    <t>绣球菌(袋)</t>
-  </si>
-  <si>
-    <t>花菇(一人份)</t>
-  </si>
-  <si>
-    <t>茶树菇(袋)</t>
-  </si>
-  <si>
-    <t>菌菇火锅套餐(份)</t>
-  </si>
-  <si>
-    <t>菌蔬四宝(份)</t>
-  </si>
-  <si>
-    <t>虫草花</t>
-  </si>
-  <si>
-    <t>虫草花(份)</t>
-  </si>
-  <si>
-    <t>虫草花(盒)(2)</t>
-  </si>
-  <si>
-    <t>虫草花(袋)</t>
-  </si>
-  <si>
-    <t>蟹味菇(1)</t>
-  </si>
-  <si>
-    <t>蟹味菇(2)</t>
-  </si>
-  <si>
-    <t>蟹味菇(盒)</t>
-  </si>
-  <si>
-    <t>蟹味菇(袋)</t>
-  </si>
-  <si>
-    <t>蟹味菇与白玉菇双拼(盒)</t>
-  </si>
-  <si>
-    <t>西峡花菇(1)</t>
-  </si>
-  <si>
-    <t>西峡花菇(2)</t>
-  </si>
-  <si>
-    <t>西峡香菇(1)</t>
-  </si>
-  <si>
-    <t>西峡香菇(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">西峡香菇(份) </t>
-  </si>
-  <si>
-    <t>赤松茸</t>
-  </si>
-  <si>
-    <t>赤松茸(盒)</t>
-  </si>
-  <si>
-    <t>金针菇(1)</t>
-  </si>
-  <si>
-    <t>金针菇(2)</t>
-  </si>
-  <si>
-    <t>金针菇(份)</t>
-  </si>
-  <si>
-    <t>金针菇(盒)</t>
-  </si>
-  <si>
-    <t>金针菇(袋)(1)</t>
-  </si>
-  <si>
-    <t>金针菇(袋)(2)</t>
-  </si>
-  <si>
-    <t>金针菇(袋)(3)</t>
-  </si>
-  <si>
-    <t>银耳(朵)</t>
-  </si>
-  <si>
-    <t>鲜木耳(1)</t>
-  </si>
-  <si>
-    <t>鲜木耳(2)</t>
-  </si>
-  <si>
-    <t>鲜木耳(份)</t>
-  </si>
-  <si>
-    <t>鸡枞菌</t>
-  </si>
-  <si>
-    <t>鹿茸菇(盒)</t>
-  </si>
-  <si>
-    <t>黑牛肝菌</t>
-  </si>
-  <si>
-    <t>黑牛肝菌(盒)</t>
-  </si>
-  <si>
-    <t>黑皮鸡枞菌</t>
-  </si>
-  <si>
-    <t>黑皮鸡枞菌(盒)</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -649,10 +649,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>2020</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -761,10 +761,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -775,10 +775,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>2020</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -873,10 +873,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>2020</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -901,10 +901,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -915,10 +915,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -943,10 +943,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>2020</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -1097,10 +1097,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -1111,10 +1111,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>2021</v>
@@ -1139,10 +1139,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>2020</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -1195,10 +1195,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -1237,10 +1237,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C46">
         <v>2020</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C48">
         <v>2022</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C49">
         <v>2020</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -1321,10 +1321,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C52">
         <v>2022</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C53">
         <v>2023</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C54">
         <v>2021</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C55">
         <v>2022</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <v>2020</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C58">
         <v>2022</v>
@@ -1419,10 +1419,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C59">
         <v>2021</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C60">
         <v>2020</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C62">
         <v>2022</v>
@@ -1475,10 +1475,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C63">
         <v>2020</v>
@@ -1489,10 +1489,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <v>2021</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>2022</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C66">
         <v>2023</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C67">
         <v>2020</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <v>2021</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C69">
         <v>2020</v>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C70">
         <v>2021</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <v>2022</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>2023</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>2022</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <v>2023</v>
@@ -1643,10 +1643,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -1657,10 +1657,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C76">
         <v>2022</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>2023</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>2020</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C79">
         <v>2021</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C80">
         <v>2023</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C81">
         <v>2022</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C82">
         <v>2023</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C83">
         <v>2021</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C84">
         <v>2020</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C85">
         <v>2021</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C86">
         <v>2021</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C87">
         <v>2022</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C88">
         <v>2020</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C89">
         <v>2021</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C90">
         <v>2022</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C91">
         <v>2022</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C92">
         <v>2020</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C93">
         <v>2021</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C94">
         <v>2023</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C95">
         <v>2020</v>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C96">
         <v>2021</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C97">
         <v>2022</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C98">
         <v>2023</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C99">
         <v>2022</v>
@@ -1993,10 +1993,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C100">
         <v>2020</v>
@@ -2007,10 +2007,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C101">
         <v>2021</v>
@@ -2021,10 +2021,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C102">
         <v>2022</v>
@@ -2035,10 +2035,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C103">
         <v>2023</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C104">
         <v>2022</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C105">
         <v>2022</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C106">
         <v>2023</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C107">
         <v>2023</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C108">
         <v>2021</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C109">
         <v>2022</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C110">
         <v>2020</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C111">
         <v>2021</v>
@@ -2161,10 +2161,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C112">
         <v>2022</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C113">
         <v>2023</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C114">
         <v>2022</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C115">
         <v>2022</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C116">
         <v>2022</v>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C117">
         <v>2023</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C118">
         <v>2020</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C119">
         <v>2021</v>
@@ -2273,10 +2273,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C120">
         <v>2021</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C121">
         <v>2022</v>
@@ -2301,10 +2301,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C122">
         <v>2020</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C123">
         <v>2021</v>
@@ -2329,10 +2329,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C124">
         <v>2020</v>
@@ -2343,10 +2343,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C125">
         <v>2021</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C126">
         <v>2022</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C127">
         <v>2023</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B128" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C128">
         <v>2020</v>
@@ -2399,10 +2399,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C129">
         <v>2021</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C130">
         <v>2022</v>
@@ -2427,10 +2427,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B131" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C131">
         <v>2022</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B132" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C132">
         <v>2023</v>
@@ -2455,10 +2455,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B133" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C133">
         <v>2020</v>
@@ -2469,10 +2469,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C134">
         <v>2023</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B135" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C135">
         <v>2022</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B136" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C136">
         <v>2023</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C137">
         <v>2021</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B138" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C138">
         <v>2020</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
         <v>75</v>
